--- a/data/s_vals/2024/floro_dylan.xlsx
+++ b/data/s_vals/2024/floro_dylan.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.32444174274583</v>
+        <v>1.459612070389937</v>
       </c>
       <c r="C2" t="n">
-        <v>9.378199737598186</v>
+        <v>114.8270160096505</v>
       </c>
       <c r="D2" t="n">
-        <v>2.295182259495947</v>
+        <v>26.21740644021617</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>14.83038002200095</v>
+        <v>151.1642670062056</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C3" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4920287655081723</v>
+        <v>0.8054896365839992</v>
       </c>
       <c r="E3" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.74944636812674</v>
+        <v>6.201049113329182</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6629759848332026</v>
+        <v>0.127881588408715</v>
       </c>
       <c r="C4" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4920287655081723</v>
+        <v>0.8054896365839992</v>
       </c>
       <c r="E4" t="n">
-        <v>1.975618444095408</v>
+        <v>645.3272768299601</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.437932053608933</v>
+        <v>647.9284426382209</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.32444174274583</v>
+        <v>1.459612070389937</v>
       </c>
       <c r="C5" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D5" t="n">
-        <v>1.06073455665548</v>
+        <v>3.900430680208489</v>
       </c>
       <c r="E5" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>5.038296465484453</v>
+        <v>7.524616544037286</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C6" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D6" t="n">
-        <v>0.218472785105742</v>
+        <v>0.1575252929769615</v>
       </c>
       <c r="E6" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.475890387724311</v>
+        <v>5.553084769722144</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C7" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D7" t="n">
-        <v>2.295182259495947</v>
+        <v>26.21740644021617</v>
       </c>
       <c r="E7" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>7.552599862114516</v>
+        <v>31.61296591696135</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C8" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4920287655081723</v>
+        <v>0.8054896365839992</v>
       </c>
       <c r="E8" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>5.74944636812674</v>
+        <v>6.201049113329182</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.32444174274583</v>
+        <v>1.459612070389937</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5259639568199952</v>
+        <v>0.3127903958511391</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4920287655081723</v>
+        <v>0.8054896365839992</v>
       </c>
       <c r="E9" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.68824577198499</v>
+        <v>3.074671312995807</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.604297436535426</v>
+        <v>3.230985683306322</v>
       </c>
       <c r="C10" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D10" t="n">
-        <v>1.06073455665548</v>
+        <v>3.900430680208489</v>
       </c>
       <c r="E10" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.318152159274049</v>
+        <v>9.295990156953671</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.32444174274583</v>
+        <v>1.459612070389937</v>
       </c>
       <c r="C11" t="n">
-        <v>1.30730885917215</v>
+        <v>1.667794583268128</v>
       </c>
       <c r="D11" t="n">
-        <v>1.06073455665548</v>
+        <v>3.900430680208489</v>
       </c>
       <c r="E11" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>5.038296465484453</v>
+        <v>7.524616544037286</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/floro_dylan.xlsx
+++ b/data/s_vals/2024/floro_dylan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>151.1642670062056</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>6.201049113329182</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>647.9284426382209</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>7.524616544037286</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>5.553084769722144</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>31.61296591696135</v>
       </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>6.201049113329182</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>3.074671312995807</v>
       </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>9.295990156953671</v>
       </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -713,6 +745,9 @@
       </c>
       <c r="G11" t="n">
         <v>7.524616544037286</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/floro_dylan.xlsx
+++ b/data/s_vals/2024/floro_dylan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>sum</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Save</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -494,9 +489,6 @@
       <c r="G2" t="n">
         <v>151.1642670062056</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -522,9 +514,6 @@
       <c r="G3" t="n">
         <v>6.201049113329182</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -550,9 +539,6 @@
       <c r="G4" t="n">
         <v>647.9284426382209</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,9 +564,6 @@
       <c r="G5" t="n">
         <v>7.524616544037286</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -606,9 +589,6 @@
       <c r="G6" t="n">
         <v>5.553084769722144</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -634,9 +614,6 @@
       <c r="G7" t="n">
         <v>31.61296591696135</v>
       </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -662,9 +639,6 @@
       <c r="G8" t="n">
         <v>6.201049113329182</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -690,9 +664,6 @@
       <c r="G9" t="n">
         <v>3.074671312995807</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -718,9 +689,6 @@
       <c r="G10" t="n">
         <v>9.295990156953671</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -745,9 +713,6 @@
       </c>
       <c r="G11" t="n">
         <v>7.524616544037286</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/floro_dylan.xlsx
+++ b/data/s_vals/2024/floro_dylan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>151.1642670062056</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>6.201049113329182</v>
       </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>647.9284426382209</v>
       </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>7.524616544037286</v>
       </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>5.553084769722144</v>
       </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>31.61296591696135</v>
       </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>6.201049113329182</v>
       </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>3.074671312995807</v>
       </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>9.295990156953671</v>
       </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -713,6 +745,9 @@
       </c>
       <c r="G11" t="n">
         <v>7.524616544037286</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/floro_dylan.xlsx
+++ b/data/s_vals/2024/floro_dylan.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.459612070389937</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C2" t="n">
-        <v>114.8270160096505</v>
+        <v>86.29678392075563</v>
       </c>
       <c r="D2" t="n">
-        <v>26.21740644021617</v>
+        <v>16.98373111632243</v>
       </c>
       <c r="E2" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>151.1642670062056</v>
+        <v>111.2675571555179</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C3" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8054896365839992</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E3" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.201049113329182</v>
+        <v>6.048734245549538</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.127881588408715</v>
+        <v>0.1554434735375247</v>
       </c>
       <c r="C4" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8054896365839992</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E4" t="n">
-        <v>645.3272768299601</v>
+        <v>246.9852506941017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>647.9284426382209</v>
+        <v>249.506663477553</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -561,22 +561,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.459612070389937</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C5" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D5" t="n">
-        <v>3.900430680208489</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E5" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>7.524616544037286</v>
+        <v>6.741336633845642</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -589,22 +589,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C6" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1575252929769615</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E6" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>5.553084769722144</v>
+        <v>5.488907176552729</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -617,22 +617,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C7" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D7" t="n">
-        <v>26.21740644021617</v>
+        <v>16.98373111632243</v>
       </c>
       <c r="E7" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>31.61296591696135</v>
+        <v>22.31973251085698</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -645,22 +645,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C8" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8054896365839992</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E8" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>6.201049113329182</v>
+        <v>6.048734245549538</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -673,22 +673,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.459612070389937</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3127903958511391</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8054896365839992</v>
+        <v>0.7127328510149897</v>
       </c>
       <c r="E9" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.074671312995807</v>
+        <v>3.055818435266709</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -701,25 +701,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.230985683306322</v>
+        <v>3.182878228561681</v>
       </c>
       <c r="C10" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D10" t="n">
-        <v>3.900430680208489</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E10" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>9.295990156953671</v>
+        <v>8.418600821238126</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -729,22 +729,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.459612070389937</v>
+        <v>1.505614041169197</v>
       </c>
       <c r="C11" t="n">
-        <v>1.667794583268128</v>
+        <v>1.65323645889881</v>
       </c>
       <c r="D11" t="n">
-        <v>3.900430680208489</v>
+        <v>3.082599426703578</v>
       </c>
       <c r="E11" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>7.524616544037286</v>
+        <v>6.741336633845642</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
